--- a/2. Senior Centers MySidewalk Profiles/Update Log.xlsx
+++ b/2. Senior Centers MySidewalk Profiles/Update Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmccall\Documents\GIT\Aging-and-Disability\Senior Centers MySidewalk Profiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmccall\Documents\GIT\Aging-and-Disability\2. Senior Centers MySidewalk Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1954DC-725C-4C29-875C-50F239B725DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB15264-BA25-49C6-9146-8EA62AA491DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{940324B9-2625-4B70-BB57-73308F3561E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{940324B9-2625-4B70-BB57-73308F3561E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="132">
   <si>
     <t>Center</t>
   </si>
@@ -413,6 +413,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>69-72</t>
+  </si>
+  <si>
+    <t>FiftyForward Madison Station Senior Center</t>
+  </si>
+  <si>
+    <t>530 Madison Station Blvd, Madison, TN 37115</t>
+  </si>
+  <si>
+    <t>Fifty Forward Madison Station 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>FiftyForward Madison Station</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/b797651eb3</t>
   </si>
 </sst>
 </file>
@@ -777,25 +795,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39292D16-EDB9-4CBC-AA7B-5D5D8FA2B9FD}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
     <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1639,6 +1657,50 @@
       </c>
       <c r="O18" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1660,6 +1722,7 @@
     <hyperlink ref="N15" r:id="rId15" xr:uid="{F1832BE1-5B60-4830-B015-A5A452314E8C}"/>
     <hyperlink ref="N17" r:id="rId16" xr:uid="{14F61905-BF13-4925-818D-2FB7E074FF77}"/>
     <hyperlink ref="N18" r:id="rId17" xr:uid="{A045B208-595D-4E74-BD30-2CE4E3243D86}"/>
+    <hyperlink ref="N19" r:id="rId18" xr:uid="{1E455A61-15D1-4F43-95FD-CF242ED02160}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
